--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>924103.9401048461</v>
+        <v>961248.6457728045</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>236428.3313983642</v>
+        <v>332906.6712380797</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9662474.503279347</v>
+        <v>10850698.87543052</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8503954.478074785</v>
+        <v>7918711.220456297</v>
       </c>
     </row>
     <row r="11">
@@ -665,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>204.7150910205805</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>243.2386572690345</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.72166892720548</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>163.3657543017351</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>51.47427571028325</v>
       </c>
       <c r="S4" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,16 +910,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>364.1361550348461</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>227.7664834517755</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +977,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>24.01096919044958</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325226</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>63.57678144609342</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>77.14804664098561</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>132.6299340169938</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>38.19053515138876</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1218,19 +1220,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554002</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231965</v>
+        <v>83.9961529983624</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1303,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>21.57990476584688</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>134.6751203255734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>163.8950372953896</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1415,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>115.9738437752621</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
         <v>196.8897623984489</v>
@@ -1515,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="13">
@@ -1534,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
@@ -1549,7 +1551,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.5196897930034</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.8890433060915</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.6012219076465</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1692,7 +1694,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554002</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>54.47555601903365</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>195.8890433060915</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>194.8806712903671</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2090,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>150.0269500516281</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>59.32376300879388</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,16 +2253,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.956861782665</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.220846587375998</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2324,13 +2326,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>351.2391879744742</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2381,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2482,22 +2484,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.7081597560724</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>81.12200652863734</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,25 +2718,25 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>162.1994487854631</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>14.46389722690827</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2843,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>120.354512103571</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>201.330287938294</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>83.59830597394826</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3032,13 +3034,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>184.5808806410317</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.661565599970924</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3229,22 +3231,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>129.0246247964034</v>
+        <v>112.2008592180669</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>257.0152846411281</v>
+        <v>231.4629793628267</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>43.3178534391397</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>2.105511917133842</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>0.4909289099632224</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3557,10 +3559,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>33.84234274505248</v>
+        <v>155.2114886365808</v>
       </c>
     </row>
     <row r="41">
@@ -3740,19 +3742,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>286.568713290759</v>
+        <v>325.2238509111098</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>234.4871813790489</v>
+        <v>269.027508828177</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,13 +3979,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3992,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>14.81685484363917</v>
       </c>
       <c r="V44" t="n">
-        <v>210.4979324777802</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55.90301252244922</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.09252109618843</v>
+        <v>731.2178664535166</v>
       </c>
       <c r="C2" t="n">
-        <v>22.09252109618843</v>
+        <v>731.2178664535166</v>
       </c>
       <c r="D2" t="n">
-        <v>22.09252109618843</v>
+        <v>731.2178664535166</v>
       </c>
       <c r="E2" t="n">
-        <v>22.09252109618843</v>
+        <v>524.4349462307081</v>
       </c>
       <c r="F2" t="n">
-        <v>22.09252109618843</v>
+        <v>277.4018832396551</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618843</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412868</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P2" t="n">
-        <v>1099.465256491931</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q2" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U2" t="n">
-        <v>858.9304414063565</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V2" t="n">
-        <v>579.9844679696338</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="W2" t="n">
-        <v>301.0384945329111</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="X2" t="n">
-        <v>22.09252109618843</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.09252109618843</v>
+        <v>731.2178664535166</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>355.783005382771</v>
+        <v>328.2410719719956</v>
       </c>
       <c r="C3" t="n">
-        <v>181.3299761016439</v>
+        <v>153.7880426908686</v>
       </c>
       <c r="D3" t="n">
-        <v>181.3299761016439</v>
+        <v>153.7880426908686</v>
       </c>
       <c r="E3" t="n">
-        <v>22.09252109618843</v>
+        <v>153.7880426908686</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618843</v>
+        <v>153.7880426908686</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618843</v>
+        <v>153.7880426908686</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618843</v>
+        <v>40.49599730324036</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318534</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L3" t="n">
-        <v>165.799003153448</v>
+        <v>251.2267644261524</v>
       </c>
       <c r="M3" t="n">
-        <v>367.8501726635176</v>
+        <v>481.6032601595282</v>
       </c>
       <c r="N3" t="n">
-        <v>641.2451212288495</v>
+        <v>481.6032601595282</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121333</v>
+        <v>723.7203651970592</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>907.8577401332358</v>
       </c>
       <c r="Q3" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R3" t="n">
-        <v>1104.626054809422</v>
+        <v>877.5769898880284</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>704.3079091975965</v>
       </c>
       <c r="T3" t="n">
-        <v>1104.626054809422</v>
+        <v>704.3079091975965</v>
       </c>
       <c r="U3" t="n">
-        <v>939.6101413733256</v>
+        <v>704.3079091975965</v>
       </c>
       <c r="V3" t="n">
-        <v>939.6101413733256</v>
+        <v>704.3079091975965</v>
       </c>
       <c r="W3" t="n">
-        <v>939.6101413733256</v>
+        <v>704.3079091975965</v>
       </c>
       <c r="X3" t="n">
-        <v>731.7586411677928</v>
+        <v>496.4564089920636</v>
       </c>
       <c r="Y3" t="n">
-        <v>523.9983424028389</v>
+        <v>496.4564089920636</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N4" t="n">
-        <v>160.9488293168851</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>71.5592364780664</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="S4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="T4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="U4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="V4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>902.4179758042681</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="C5" t="n">
-        <v>902.4179758042681</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="D5" t="n">
-        <v>902.4179758042681</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="E5" t="n">
-        <v>902.4179758042681</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="F5" t="n">
-        <v>902.4179758042681</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>330.254671414236</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>950.1371873885137</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="X5" t="n">
-        <v>1289.01781586839</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="Y5" t="n">
-        <v>1289.01781586839</v>
+        <v>291.0988920136271</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>183.9936918778962</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>183.9936918778962</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>183.9936918778962</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>183.9936918778962</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>183.9936918778962</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>45.31286694891068</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>158.2210505399122</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>158.2210505399122</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>418.8306641520621</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>600.5536970360758</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>860.9667611285679</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>580.4293576557594</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>352.2090288979642</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>352.2090288979642</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>352.2090288979642</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>352.2090288979642</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>352.2090288979642</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E7" t="n">
-        <v>663.9100130487641</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F7" t="n">
-        <v>517.0200655508537</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>54.48163939360295</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>98.98668255551274</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1448.521729839487</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="C8" t="n">
-        <v>1079.559212899075</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="D8" t="n">
-        <v>1079.559212899075</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="E8" t="n">
-        <v>1079.559212899075</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="F8" t="n">
-        <v>668.5733081094677</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>508.1578098032604</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>1066.049756676706</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>1066.049756676706</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.723949158869</v>
+        <v>1066.049756676706</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>1066.049756676706</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.661061815299</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="Y8" t="n">
-        <v>1448.521729839487</v>
+        <v>787.1037832399832</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>936.4107177893536</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>761.9576885082266</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747043</v>
+        <v>613.0232788469754</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>453.7858238415199</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>307.2512658684049</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>411.954469746149</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>562.3310704112776</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1104.626054809422</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>562.6765899837194</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C10" t="n">
-        <v>562.6765899837194</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D10" t="n">
-        <v>562.6765899837194</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="E10" t="n">
-        <v>562.6765899837194</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837194</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220518</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>43.89040469805397</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R10" t="n">
-        <v>562.6765899837194</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S10" t="n">
-        <v>562.6765899837194</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T10" t="n">
-        <v>562.6765899837194</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U10" t="n">
-        <v>562.6765899837194</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V10" t="n">
-        <v>562.6765899837194</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W10" t="n">
-        <v>562.6765899837194</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X10" t="n">
-        <v>562.6765899837194</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y10" t="n">
-        <v>562.6765899837194</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2476.569858826099</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C11" t="n">
         <v>2107.607341885688</v>
@@ -5036,16 +5038,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548715</v>
+        <v>2580.003794275533</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548715</v>
+        <v>2361.369127247596</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548715</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="V11" t="n">
-        <v>2642.120401548715</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="W11" t="n">
-        <v>2642.120401548715</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="X11" t="n">
-        <v>2642.120401548715</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y11" t="n">
-        <v>2642.120401548715</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5145,16 +5147,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D13" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E13" t="n">
-        <v>348.0202652891861</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F13" t="n">
-        <v>348.0202652891861</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5218,31 +5220,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2323.103882821189</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C14" t="n">
         <v>1954.141365880777</v>
       </c>
       <c r="D14" t="n">
-        <v>1595.875667274026</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E14" t="n">
         <v>1210.087414675782</v>
       </c>
       <c r="F14" t="n">
-        <v>799.1015098861747</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G14" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5303,25 +5305,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2520.971603332392</v>
+        <v>2538.966038586256</v>
       </c>
       <c r="U14" t="n">
-        <v>2520.971603332392</v>
+        <v>2285.204253224348</v>
       </c>
       <c r="V14" t="n">
-        <v>2520.971603332392</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="W14" t="n">
-        <v>2520.971603332392</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="X14" t="n">
-        <v>2520.971603332392</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="Y14" t="n">
-        <v>2520.971603332392</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
         <v>505.8730812692495</v>
@@ -5352,13 +5354,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
         <v>713.8062203571349</v>
@@ -5379,25 +5381,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036444</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036444</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036444</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036444</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036444</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036444</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036444</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5467,19 +5469,19 @@
         <v>108.9687959810045</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036444</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036444</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036444</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036444</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036444</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2323.103882821189</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="C17" t="n">
-        <v>1954.141365880777</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D17" t="n">
-        <v>1595.875667274027</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E17" t="n">
-        <v>1210.087414675782</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F17" t="n">
         <v>799.1015098861748</v>
@@ -5513,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5540,25 +5542,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2520.971603332393</v>
+        <v>2500.29992809866</v>
       </c>
       <c r="U17" t="n">
-        <v>2520.971603332393</v>
+        <v>2246.538142736751</v>
       </c>
       <c r="V17" t="n">
-        <v>2520.971603332393</v>
+        <v>1915.475255393181</v>
       </c>
       <c r="W17" t="n">
-        <v>2520.971603332393</v>
+        <v>1562.706600123066</v>
       </c>
       <c r="X17" t="n">
-        <v>2520.971603332393</v>
+        <v>1189.240841861987</v>
       </c>
       <c r="Y17" t="n">
-        <v>2520.971603332393</v>
+        <v>799.1015098861748</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424003</v>
@@ -5631,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5695,25 +5697,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W19" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
         <v>53.94298182036445</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1215.960741127172</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="C20" t="n">
-        <v>1215.960741127172</v>
+        <v>1778.489019706303</v>
       </c>
       <c r="D20" t="n">
-        <v>857.6950425204218</v>
+        <v>1420.223321099553</v>
       </c>
       <c r="E20" t="n">
-        <v>471.9067899221776</v>
+        <v>1034.435068501308</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>623.449163711701</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>205.4853556098878</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.48357412947</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="W20" t="n">
-        <v>1602.560581191294</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="X20" t="n">
-        <v>1602.560581191294</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="Y20" t="n">
-        <v>1602.560581191294</v>
+        <v>2147.451536646715</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>332.1920961943573</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>332.1920961943573</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>332.1920961943573</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>332.1920961943573</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>332.1920961943573</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>163.1922959326897</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>163.1922959326897</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5917,43 +5919,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q22" t="n">
-        <v>718.8149977545393</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R22" t="n">
-        <v>570.6683391887233</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S22" t="n">
-        <v>570.6683391887233</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T22" t="n">
-        <v>343.360151857325</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U22" t="n">
-        <v>343.360151857325</v>
+        <v>513.840561024597</v>
       </c>
       <c r="V22" t="n">
-        <v>343.360151857325</v>
+        <v>513.840561024597</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036445</v>
+        <v>513.840561024597</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>513.840561024597</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>513.840561024597</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1577.945354755378</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C23" t="n">
-        <v>1208.982837814967</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D23" t="n">
-        <v>850.7171392082162</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>819.715945170047</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>408.7300403804394</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -6029,10 +6031,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>2354.684526795312</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1964.5451948195</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6087,28 +6089,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J25" t="n">
         <v>53.94298182036445</v>
@@ -6175,22 +6177,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1580.775345511217</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C26" t="n">
-        <v>1211.812828570805</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D26" t="n">
-        <v>1211.812828570805</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E26" t="n">
-        <v>1211.812828570805</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F26" t="n">
-        <v>800.8269237811974</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
-        <v>382.8631156793842</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>55.66839571538708</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
@@ -6254,22 +6256,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W26" t="n">
-        <v>2344.380435748108</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X26" t="n">
-        <v>1970.914677487028</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y26" t="n">
-        <v>1580.775345511217</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
@@ -6324,22 +6326,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D28" t="n">
-        <v>365.6939024587809</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E28" t="n">
-        <v>217.7808088763878</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F28" t="n">
-        <v>217.7808088763878</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J28" t="n">
         <v>53.94298182036445</v>
@@ -6406,28 +6408,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1208.982837814967</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C29" t="n">
-        <v>1208.982837814967</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D29" t="n">
-        <v>850.7171392082162</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E29" t="n">
-        <v>464.928886609972</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6491,22 +6493,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2575.578876772191</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2321.817091410283</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2321.817091410283</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>1969.048436140168</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>1595.582677879088</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y29" t="n">
-        <v>1595.582677879088</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
@@ -6561,22 +6563,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="T31" t="n">
-        <v>524.7650569960363</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="U31" t="n">
-        <v>235.5914466506042</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V31" t="n">
-        <v>235.5914466506042</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W31" t="n">
-        <v>235.5914466506042</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X31" t="n">
-        <v>235.5914466506042</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y31" t="n">
-        <v>235.5914466506042</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1577.945354755379</v>
+        <v>422.9054987607762</v>
       </c>
       <c r="C32" t="n">
-        <v>1208.982837814967</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D32" t="n">
-        <v>850.7171392082163</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E32" t="n">
-        <v>464.928886609972</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F32" t="n">
         <v>53.94298182036446</v>
@@ -6698,13 +6700,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6725,25 +6727,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2302.336936304456</v>
+        <v>2510.703757037383</v>
       </c>
       <c r="U32" t="n">
-        <v>2302.336936304456</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V32" t="n">
-        <v>1971.274048960885</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W32" t="n">
-        <v>1971.274048960885</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X32" t="n">
-        <v>1971.274048960885</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y32" t="n">
-        <v>1964.5451948195</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036446</v>
@@ -6780,7 +6782,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
         <v>670.8219208598713</v>
@@ -6822,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.962888893821</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.962888893821</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.962888893821</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.962888893821</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.962888893821</v>
       </c>
       <c r="G34" t="n">
         <v>2022.963088632153</v>
@@ -6877,31 +6879,31 @@
         <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018223</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018223</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="T34" t="n">
-        <v>2566.821187183472</v>
+        <v>2191.962888893821</v>
       </c>
       <c r="U34" t="n">
-        <v>2277.64757683804</v>
+        <v>2191.962888893821</v>
       </c>
       <c r="V34" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.962888893821</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.962888893821</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.962888893821</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.962888893821</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2255.520561484594</v>
+        <v>1606.946621408919</v>
       </c>
       <c r="C35" t="n">
-        <v>1886.558044544182</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="D35" t="n">
-        <v>1528.292345937431</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="E35" t="n">
-        <v>1142.504093339187</v>
+        <v>852.1958518702629</v>
       </c>
       <c r="F35" t="n">
-        <v>731.5181885495797</v>
+        <v>441.2099470806554</v>
       </c>
       <c r="G35" t="n">
-        <v>313.5543804477666</v>
+        <v>441.2099470806554</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="X35" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="Y35" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M36" t="n">
         <v>1194.968834417902</v>
@@ -7035,22 +7037,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7059,7 +7061,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>325.6879402326643</v>
+        <v>2066.718496146436</v>
       </c>
       <c r="C37" t="n">
-        <v>156.7517573047574</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D37" t="n">
-        <v>156.7517573047574</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E37" t="n">
-        <v>156.7517573047574</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F37" t="n">
-        <v>156.7517573047574</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G37" t="n">
-        <v>156.7517573047574</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H37" t="n">
-        <v>156.7517573047574</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>2469.159540120206</v>
       </c>
       <c r="Y37" t="n">
-        <v>507.3364050629041</v>
+        <v>2248.366960976676</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1365.680170394969</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C38" t="n">
-        <v>1365.680170394969</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D38" t="n">
-        <v>1365.680170394969</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E38" t="n">
-        <v>1363.553390680693</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2696.653203230381</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2696.653203230381</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990285</v>
+        <v>2478.018536202444</v>
       </c>
       <c r="U38" t="n">
-        <v>2478.514423990285</v>
+        <v>2224.256750840535</v>
       </c>
       <c r="V38" t="n">
-        <v>2478.514423990285</v>
+        <v>1893.193863496965</v>
       </c>
       <c r="W38" t="n">
-        <v>2125.745768720171</v>
+        <v>1540.425208226851</v>
       </c>
       <c r="X38" t="n">
-        <v>1752.280010459091</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="Y38" t="n">
-        <v>1752.280010459091</v>
+        <v>1166.959449965771</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7296,7 +7298,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="40">
@@ -7306,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2191.89927156006</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
         <v>2022.963088632153</v>
@@ -7336,46 +7338,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W40" t="n">
         <v>2407.731920981262</v>
       </c>
       <c r="X40" t="n">
-        <v>2407.731920981262</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="Y40" t="n">
-        <v>2373.5477363903</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1937.083492693021</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C41" t="n">
-        <v>1568.120975752609</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="D41" t="n">
-        <v>1209.855277145859</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="E41" t="n">
-        <v>824.0670245476144</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="F41" t="n">
-        <v>824.0670245476144</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="G41" t="n">
         <v>534.603677789272</v>
@@ -7409,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7445,16 +7447,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y41" t="n">
-        <v>2323.683332757143</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
@@ -7494,37 +7496,37 @@
         <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
         <v>53.94298182036445</v>
@@ -7600,19 +7602,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>491.2732454397182</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V43" t="n">
-        <v>491.2732454397182</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W43" t="n">
-        <v>201.8560754027576</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X43" t="n">
-        <v>201.8560754027576</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y43" t="n">
-        <v>201.8560754027576</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1004.183115213127</v>
+        <v>1519.351822121131</v>
       </c>
       <c r="C44" t="n">
-        <v>1004.183115213127</v>
+        <v>1150.38930518072</v>
       </c>
       <c r="D44" t="n">
-        <v>1004.183115213127</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="E44" t="n">
-        <v>618.3948626148824</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F44" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7673,25 +7675,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>2627.153881504636</v>
       </c>
       <c r="V44" t="n">
-        <v>1780.92228725306</v>
+        <v>2296.090994161065</v>
       </c>
       <c r="W44" t="n">
-        <v>1780.92228725306</v>
+        <v>2296.090994161065</v>
       </c>
       <c r="X44" t="n">
-        <v>1780.92228725306</v>
+        <v>2296.090994161065</v>
       </c>
       <c r="Y44" t="n">
-        <v>1390.782955277248</v>
+        <v>1905.951662185253</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7728,10 +7730,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M45" t="n">
         <v>1194.968834417902</v>
@@ -7746,22 +7748,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>222.8791647482714</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C46" t="n">
         <v>53.94298182036445</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562865</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>327.1395372443068</v>
+        <v>372.8353096890152</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>129.2864630672354</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>385.2788254813442</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>392.8337743093848</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>302.0260804039067</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>263.6455160524018</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9182,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10601,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11142,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>145.0294169142014</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -22553,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>177.2152790516813</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>162.313313380569</v>
       </c>
       <c r="G2" t="n">
-        <v>415.1619485273195</v>
+        <v>170.7252358559294</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22589,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U2" t="n">
-        <v>8.095732519776732</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V2" t="n">
-        <v>51.59574476777948</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>73.08445501505759</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>93.57458697611361</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="3">
@@ -22632,19 +22634,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>68.40289011560628</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
-        <v>62.57067194045871</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22692,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I4" t="n">
-        <v>153.551289182031</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>125.5212316362309</v>
       </c>
       <c r="S4" t="n">
-        <v>47.78481791206877</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22796,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>49.64801498594886</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>121.4744852656375</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>106.4890667268024</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.995904704387</v>
       </c>
     </row>
     <row r="6">
@@ -22863,25 +22865,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.74640458683641</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22920,16 +22922,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22948,25 +22950,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>82.85718120047575</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>98.27937439571075</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23021,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,13 +23032,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>281.1542360038012</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>61.87643319194541</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>167.6213053750091</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505759</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23112,7 +23114,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>53.27203541537689</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>67.31435166865151</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R10" t="n">
-        <v>11.99007165458448</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.838804368091</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>58.44186903370947</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23422,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23437,7 +23439,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>11.62584915701547</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>186.8447983573891</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>59.84709845001129</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23671,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>186.8447983573891</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>21.56764906729066</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23908,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>63.37316471551392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>173.895822712729</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>289.9172057086191</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>72.00876000967322</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.90190336753831</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24212,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>62.54498204632074</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24269,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24370,22 +24372,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24415,13 +24417,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>96.01048066168093</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>150.2231564887888</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,13 +24496,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>135.3263138290204</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24604,25 +24606,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>5.110353473587793</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>141.7069916148869</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24680,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24692,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24731,22 +24733,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>96.09380825408675</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24883,16 +24885,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>23.70481751979031</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>202.6835682680295</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24920,13 +24922,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -24965,25 +24967,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>31.86743971662608</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>379.5763730560827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25117,22 +25119,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>96.01048066168084</v>
+        <v>112.8342462400174</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25157,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>66.90748812322909</v>
+        <v>92.45979340153045</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25330,7 +25332,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>33.18493406278918</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25375,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>379.8248581551279</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>53.98747366484849</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25445,10 +25447,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>184.7423106070423</v>
+        <v>63.37316471551401</v>
       </c>
     </row>
     <row r="41">
@@ -25628,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>127.215456730036</v>
+        <v>88.56031910968522</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25685,16 +25687,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25792,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25840,19 +25842,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>51.79469286292885</v>
+        <v>17.25436541380077</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>236.4073126646501</v>
       </c>
       <c r="V44" t="n">
-        <v>117.2543259923548</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
         <v>123.9289676594881</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>469065.4218355754</v>
+        <v>443402.8450062395</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>760654.695576272</v>
+        <v>459065.0892292971</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>760654.6955762719</v>
+        <v>469065.4218355753</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>760654.6955762719</v>
+        <v>760654.695576272</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>760654.6955762719</v>
+        <v>760654.695576272</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>760654.6955762719</v>
+        <v>760654.695576272</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>760654.6955762716</v>
+        <v>760654.695576272</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>760654.6955762719</v>
+        <v>760654.695576272</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>760654.6955762719</v>
+        <v>760654.695576272</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>760654.6955762719</v>
+        <v>760654.695576272</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>150588.1755146547</v>
+      </c>
+      <c r="C2" t="n">
+        <v>156006.1355264978</v>
+      </c>
+      <c r="D2" t="n">
         <v>159463.6497950859</v>
-      </c>
-      <c r="C2" t="n">
-        <v>260237.3490141817</v>
-      </c>
-      <c r="D2" t="n">
-        <v>260237.3490141816</v>
       </c>
       <c r="E2" t="n">
         <v>260237.3490141816</v>
@@ -26326,7 +26328,7 @@
         <v>260237.3490141816</v>
       </c>
       <c r="G2" t="n">
-        <v>260237.3490141815</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="H2" t="n">
         <v>260237.3490141816</v>
@@ -26341,13 +26343,13 @@
         <v>260237.3490141816</v>
       </c>
       <c r="L2" t="n">
-        <v>260237.3490141815</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="M2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="N2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="O2" t="n">
         <v>260237.3490141817</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.341446813</v>
+        <v>85498.77860120904</v>
       </c>
       <c r="C3" t="n">
-        <v>440708.0835147456</v>
+        <v>23645.34018189503</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>14295.33970214145</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>394217.2929137604</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113909</v>
+        <v>63988.37154589874</v>
       </c>
       <c r="K3" t="n">
-        <v>102466.1171957467</v>
+        <v>4807.454491750033</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3268.538594581615</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>99215.77767884449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>8552.584737532374</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8577.315374774351</v>
+      </c>
+      <c r="D4" t="n">
         <v>8599.193178783524</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="G4" t="n">
         <v>9371.018034361485</v>
       </c>
-      <c r="D4" t="n">
-        <v>9371.018034361481</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9371.018034361481</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9371.018034361481</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>9371.018034361483</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>9371.018034361485</v>
       </c>
-      <c r="I4" t="n">
-        <v>9371.018034361481</v>
-      </c>
       <c r="J4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="K4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="L4" t="n">
         <v>9371.018034361485</v>
       </c>
       <c r="M4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="N4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="O4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="P4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>48577.10433863014</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50134.40740683334</v>
+      </c>
+      <c r="D5" t="n">
         <v>51181.37951678014</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82859.07806340946</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26485,7 +26487,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26500,10 +26502,10 @@
         <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26610.26434729077</v>
+        <v>7959.707837283175</v>
       </c>
       <c r="C6" t="n">
-        <v>-272700.8305983348</v>
+        <v>73649.07256299508</v>
       </c>
       <c r="D6" t="n">
-        <v>168007.2529164107</v>
+        <v>85387.73739738076</v>
       </c>
       <c r="E6" t="n">
-        <v>201634.8529164107</v>
+        <v>-192582.4399973497</v>
       </c>
       <c r="F6" t="n">
         <v>201634.8529164107</v>
       </c>
       <c r="G6" t="n">
-        <v>201634.8529164106</v>
+        <v>201634.8529164107</v>
       </c>
       <c r="H6" t="n">
         <v>201634.8529164107</v>
       </c>
       <c r="I6" t="n">
-        <v>201634.8529164107</v>
+        <v>201634.8529164106</v>
       </c>
       <c r="J6" t="n">
-        <v>129380.1580452717</v>
+        <v>137646.481370512</v>
       </c>
       <c r="K6" t="n">
-        <v>99168.73572066396</v>
+        <v>196827.3984246606</v>
       </c>
       <c r="L6" t="n">
-        <v>201634.8529164105</v>
+        <v>198366.3143218291</v>
       </c>
       <c r="M6" t="n">
-        <v>201634.8529164107</v>
+        <v>102419.0752375663</v>
       </c>
       <c r="N6" t="n">
         <v>201634.8529164107</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>3.673862893242319</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23.01338268678932</v>
+      </c>
+      <c r="D3" t="n">
         <v>35.02126071912529</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>244.5627323611424</v>
+      </c>
+      <c r="C4" t="n">
+        <v>263.2420339516666</v>
+      </c>
+      <c r="D4" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="D4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="E4" t="n">
-        <v>674.2872727545555</v>
-      </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26820,10 +26822,10 @@
         <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
+        <v>19.339519793547</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.00787803233597</v>
+      </c>
+      <c r="E3" t="n">
         <v>342.7224034979613</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,17 +27011,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
+        <v>18.6793015905242</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.91447975068883</v>
+      </c>
+      <c r="E4" t="n">
         <v>398.1307590522002</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
+        <v>18.6793015905242</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.91447975068894</v>
+      </c>
+      <c r="M4" t="n">
         <v>398.1307590522002</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
+        <v>18.6793015905242</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.91447975068883</v>
+      </c>
+      <c r="M4" t="n">
         <v>398.1307590522002</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>0.09251611130367558</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>0.9474806248887679</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>7.852189301760344</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>5.811515176679516</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>2.108210886332509</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.0495004835149808</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>9.452421277522957</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>0.1773162272588684</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32336,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -34699,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>121.9644487350302</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L2" t="n">
-        <v>204.1123577751702</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M2" t="n">
-        <v>243.8886146223321</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N2" t="n">
-        <v>233.0551918837966</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O2" t="n">
-        <v>174.4233304118708</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522125</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315784</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M3" t="n">
-        <v>204.0920904142118</v>
+        <v>232.7035310438139</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891755</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821095</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>71.10423162760989</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M4" t="n">
-        <v>49.4834113647894</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>115.8239578194291</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>166.2898937894758</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>183.5586190747613</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>33.75987543178749</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>46.08911889082925</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>30.4508996191905</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>151.8955562274026</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35507,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,13 +35898,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35975,7 +35977,7 @@
         <v>439.8839133355123</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36218,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,10 +37150,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
@@ -37874,7 +37876,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38096,7 +38098,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
-        <v>138.3897561047526</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
